--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mstn-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mstn-Acvr2b.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>0.02234986238877778</v>
+        <v>0.0627160655228889</v>
       </c>
       <c r="R2">
-        <v>0.201148761499</v>
+        <v>0.5644445897060001</v>
       </c>
       <c r="S2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="T2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
         <v>0.05754896699377779</v>
@@ -632,10 +632,10 @@
         <v>0.5179407029440002</v>
       </c>
       <c r="S3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="T3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
         <v>0.08486002148577777</v>
@@ -694,10 +694,10 @@
         <v>0.7637401933720001</v>
       </c>
       <c r="S4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="T4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
     </row>
   </sheetData>
